--- a/biology/Zoologie/Coenagrion/Coenagrion.xlsx
+++ b/biology/Zoologie/Coenagrion/Coenagrion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coenagrion est un genre d'odonates zygoptères (demoiselles) de la famille des Coenagrionidae.
 </t>
@@ -511,16 +523,12 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par l'entomologiste Johan Christian Fabricius en 1775 sous le nom d'Agrion. L'entomologiste britannique William Kirby l'a renommé et décrit en 1890, c'est cette description qui est retenue[1].
-L'espèce type est Coenagrion puella (Linnaeus, 1758).
-Synonymie
-Agrion Fabricius, 1775
-Austrocoenagrion Kennedy, 1920
-Nom vernaculaire
-Des agrions en français. Le nom vernaculaire agrion est aussi attribué à des espèces d'autres genres de zygoptères, par exemple Ischnura, Enallagma.
-</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Ce genre a été décrit par l'entomologiste Johan Christian Fabricius en 1775 sous le nom d'Agrion. L'entomologiste britannique William Kirby l'a renommé et décrit en 1890, c'est cette description qui est retenue.
+L'espèce type est Coenagrion puella (Linnaeus, 1758).</t>
         </is>
       </c>
     </row>
@@ -545,10 +553,86 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Agrion Fabricius, 1775
+Austrocoenagrion Kennedy, 1920</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Coenagrion</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coenagrion</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des agrions en français. Le nom vernaculaire agrion est aussi attribué à des espèces d'autres genres de zygoptères, par exemple Ischnura, Enallagma.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Coenagrion</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coenagrion</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ce genre comprend notamment les espèces suivantes :
 Coenagrion aculeatum Yu &amp; Bu, 2007
